--- a/experiment_results/DataV2_F_0.5/Email/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
+++ b/experiment_results/DataV2_F_0.5/Email/ENABLE_NORMALIZATION/AGGREGATION_ARITHMETIC_MEAN/4wise/1Bug.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="69">
   <si>
     <t>BUG ID</t>
   </si>
@@ -247,9 +247,6 @@
   </si>
   <si>
     <t>_MultipleBugs_.NOB_1.ID_44</t>
-  </si>
-  <si>
-    <t>_MultipleBugs_.NOB_1.ID_80</t>
   </si>
   <si>
     <t>_MultipleBugs_.NOB_1.ID_32</t>
@@ -584,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1811,16 +1808,16 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>52.22672064777328</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -1829,56 +1826,18 @@
         <v>1.214574898785425</v>
       </c>
       <c r="H33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I33">
-        <v>3.643724696356275</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="J33">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="K33">
-        <v>62.34817813765182</v>
+        <v>76.11336032388664</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>10</v>
-      </c>
-      <c r="I34">
-        <v>4.048582995951417</v>
-      </c>
-      <c r="J34">
-        <v>188</v>
-      </c>
-      <c r="K34">
-        <v>76.11336032388664</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -1889,7 +1848,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3116,16 +3075,16 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>52.22672064777328</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -3134,56 +3093,18 @@
         <v>1.214574898785425</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>2.024291497975709</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>40.48582995951417</v>
+        <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -3194,7 +3115,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4421,16 +4342,16 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>52.22672064777328</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -4439,56 +4360,18 @@
         <v>1.214574898785425</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>2.024291497975709</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="K33">
-        <v>62.34817813765182</v>
+        <v>76.11336032388664</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>188</v>
-      </c>
-      <c r="K34">
-        <v>76.11336032388664</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -4499,7 +4382,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5726,74 +5609,36 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>53.03643724696357</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>3.643724696356275</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>2.42914979757085</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -5804,7 +5649,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7031,74 +6876,36 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>53.03643724696357</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>3.643724696356275</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>2.42914979757085</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -7109,7 +6916,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8336,16 +8143,16 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>52.22672064777328</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -8360,50 +8167,12 @@
         <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="K33">
-        <v>62.34817813765182</v>
+        <v>76.11336032388664</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>188</v>
-      </c>
-      <c r="K34">
-        <v>76.11336032388664</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -8414,7 +8183,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9641,16 +9410,16 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>52.22672064777328</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -9665,50 +9434,12 @@
         <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>40.48582995951417</v>
+        <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -9719,7 +9450,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10946,28 +10677,28 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>57.89473684210527</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>14.17004048582996</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H33">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>14.17004048582996</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="J33">
         <v>85</v>
@@ -10976,44 +10707,6 @@
         <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -11024,7 +10717,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12251,74 +11944,36 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>54.65587044534414</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>5.668016194331984</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H33">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>39.27125506072874</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -12329,7 +11984,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13556,16 +13211,16 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>52.22672064777328</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -13574,56 +13229,18 @@
         <v>1.214574898785425</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>2.024291497975709</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>40.48582995951417</v>
+        <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -13634,7 +13251,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14861,16 +14478,16 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>52.22672064777328</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -14879,56 +14496,18 @@
         <v>1.214574898785425</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>2.024291497975709</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>40.48582995951417</v>
+        <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -14939,7 +14518,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16166,16 +15745,16 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>52.22672064777328</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -16190,50 +15769,12 @@
         <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>40.48582995951417</v>
+        <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -16244,7 +15785,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -17471,74 +17012,36 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>55.06072874493927</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>6.882591093117409</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H33">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>39.27125506072874</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -17549,7 +17052,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18776,74 +18279,36 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>55.06072874493927</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>6.882591093117409</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H33">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>39.27125506072874</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -18854,7 +18319,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20081,74 +19546,36 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>53.03643724696357</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>3.238866396761134</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H33">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>39.27125506072874</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -20159,7 +19586,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21386,16 +20813,16 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>52.22672064777328</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -21416,44 +20843,6 @@
         <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -21464,7 +20853,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22691,16 +22080,16 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>52.22672064777328</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -22721,44 +22110,6 @@
         <v>100</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>247</v>
-      </c>
-      <c r="K34">
-        <v>100</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -22769,7 +22120,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -23996,74 +23347,36 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>55.06072874493927</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>6.882591093117409</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H33">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>39.27125506072874</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -24074,7 +23387,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25301,22 +24614,22 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>53.44129554655871</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>4.048582995951417</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -25325,50 +24638,12 @@
         <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -25379,7 +24654,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26606,16 +25881,16 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>52.22672064777328</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -26624,56 +25899,18 @@
         <v>1.214574898785425</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>2.024291497975709</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>40.48582995951417</v>
+        <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -26684,7 +25921,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -27911,16 +27148,16 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>52.22672064777328</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -27929,56 +27166,18 @@
         <v>1.214574898785425</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>2.024291497975709</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>40.48582995951417</v>
+        <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -27989,7 +27188,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29216,16 +28415,16 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>52.22672064777328</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -29240,50 +28439,12 @@
         <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="K33">
-        <v>62.34817813765182</v>
+        <v>76.11336032388664</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>188</v>
-      </c>
-      <c r="K34">
-        <v>76.11336032388664</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -29294,7 +28455,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -30521,16 +29682,16 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>52.22672064777328</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -30551,44 +29712,6 @@
         <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -30599,7 +29722,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -31826,16 +30949,16 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>52.22672064777328</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -31856,44 +30979,6 @@
         <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -31904,7 +30989,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -33131,16 +32216,16 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>52.22672064777328</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -33149,56 +32234,18 @@
         <v>1.214574898785425</v>
       </c>
       <c r="H33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I33">
-        <v>3.643724696356275</v>
+        <v>4.048582995951417</v>
       </c>
       <c r="J33">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="K33">
-        <v>62.34817813765182</v>
+        <v>76.11336032388664</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>10</v>
-      </c>
-      <c r="I34">
-        <v>4.048582995951417</v>
-      </c>
-      <c r="J34">
-        <v>188</v>
-      </c>
-      <c r="K34">
-        <v>76.11336032388664</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -33209,7 +32256,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -34436,16 +33483,16 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>129</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>52.22672064777328</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
         <v>3</v>
@@ -34460,50 +33507,12 @@
         <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>40.48582995951417</v>
+        <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -34514,7 +33523,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -35741,28 +34750,28 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>57.89473684210527</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>14.17004048582996</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H33">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>14.17004048582996</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="J33">
         <v>85</v>
@@ -35771,44 +34780,6 @@
         <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -35819,7 +34790,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -37046,74 +36017,36 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>55.06072874493927</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>6.882591093117409</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H33">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>39.27125506072874</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -37124,7 +36057,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -38351,74 +37284,36 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>55.06072874493927</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>6.882591093117409</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H33">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>39.27125506072874</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="J33">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>100</v>
+        <v>34.41295546558704</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>85</v>
-      </c>
-      <c r="K34">
-        <v>34.41295546558704</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
@@ -38429,7 +37324,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -39656,22 +38551,22 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>134</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>54.25101214574899</v>
+        <v>0.8097165991902834</v>
       </c>
       <c r="E33">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F33">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>7.28744939271255</v>
+        <v>1.214574898785425</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -39686,44 +38581,6 @@
         <v>100</v>
       </c>
       <c r="L33">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <v>0.8097165991902834</v>
-      </c>
-      <c r="E34">
-        <v>138</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1.214574898785425</v>
-      </c>
-      <c r="J34">
-        <v>247</v>
-      </c>
-      <c r="K34">
-        <v>100</v>
-      </c>
-      <c r="L34">
         <v>247</v>
       </c>
     </row>
